--- a/Orçamento/Orçamento_V2.xlsx
+++ b/Orçamento/Orçamento_V2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicogentil/GitHub/Synthesla/Check2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicogentil/GitHub/Synthesla/Orçamento/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -676,7 +676,7 @@
   <dimension ref="B1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:K6"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
